--- a/OPRFileImport/(OPR)Import Period.xlsx
+++ b/OPRFileImport/(OPR)Import Period.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPRFileImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68470D16-B117-45BC-8E9D-114D3FD11465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BFEB1-ACD6-4EAE-8E97-42CD977394AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>company_code</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C56E8A-1731-4AA1-BF87-9C282DAE8F4D}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,14 +773,52 @@
         <v>39</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44927</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44957</v>
+      </c>
+      <c r="K4" s="4">
+        <v>44954</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{14619D3A-7115-4945-B526-26615F9B6AFF}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4" xr:uid="{14619D3A-7115-4945-B526-26615F9B6AFF}">
       <formula1>"PAY"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:K1" xr:uid="{AF5DF22C-93B9-45AE-AD5D-12C49F090315}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:K1 I4:K4" xr:uid="{AF5DF22C-93B9-45AE-AD5D-12C49F090315}">
       <formula1>36526</formula1>
       <formula2>2958465</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{7B58B77B-E7FB-4D53-BDEC-B3C794A9F752}">
+      <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
